--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz Pasierbek\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F68415-6000-485C-8444-13847B93CE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F746EB86-41FD-4909-812D-CFC1886767D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{094AC354-A34E-4999-8D08-C44BA4A1A4E7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="46">
   <si>
     <t>Adaboost</t>
   </si>
@@ -149,6 +149,30 @@
   <si>
     <t>waterqual</t>
   </si>
+  <si>
+    <t>WILCOXON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.70101516 0.70829993 0.68123475</t>
+  </si>
+  <si>
+    <t>0.81192924 0.80728477 0.79346026 0.75908853 0.76107529 0.75977257</t>
+  </si>
+  <si>
+    <t>RandomSubs</t>
+  </si>
+  <si>
+    <t>Gauss</t>
+  </si>
+  <si>
+    <t>DecisionTee</t>
+  </si>
+  <si>
+    <t>Kneig</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -227,21 +251,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -556,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0A0096-307C-47A4-9D13-B59610A93F0B}">
-  <dimension ref="A1:AB87"/>
+  <dimension ref="A1:AH150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="U150" sqref="U150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,203 +639,239 @@
     <col min="17" max="19" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="8"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="s">
+      <c r="R3" s="7"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1" t="s">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="N4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="4" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="4" t="s">
+      <c r="T4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="4" t="s">
+      <c r="W4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="4" t="s">
+      <c r="Z4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -840,8 +947,26 @@
       <c r="AB5">
         <v>0.62649999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="AD5">
+        <v>0.81789999999999996</v>
+      </c>
+      <c r="AE5">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="AF5">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="AG5">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="AH5">
+        <v>0.73270000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -917,8 +1042,26 @@
       <c r="AB6">
         <v>0.9677</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="AD6">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="AE6">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -994,8 +1137,26 @@
       <c r="AB7">
         <v>0.71099999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>0.73</v>
+      </c>
+      <c r="AD7">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="AE7">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="AG7">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="AH7">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1071,8 +1232,26 @@
       <c r="AB8">
         <v>0.5212</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>0.46479999999999999</v>
+      </c>
+      <c r="AD8">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="AE8">
+        <v>0.46410000000000001</v>
+      </c>
+      <c r="AF8">
+        <v>0.48359999999999997</v>
+      </c>
+      <c r="AG8">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="AH8">
+        <v>0.48430000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1148,8 +1327,26 @@
       <c r="AB9">
         <v>0.84560000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="AD9">
+        <v>0.8972</v>
+      </c>
+      <c r="AE9">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="AF9">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="AG9">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="AH9">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1225,8 +1422,26 @@
       <c r="AB10">
         <v>0.82779999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="AD10">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="AE10">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1302,8 +1517,26 @@
       <c r="AB11">
         <v>0.50960000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>0.48359999999999997</v>
+      </c>
+      <c r="AD11">
+        <v>0.48039999999999999</v>
+      </c>
+      <c r="AE11">
+        <v>0.48120000000000002</v>
+      </c>
+      <c r="AF11">
+        <v>0.49840000000000001</v>
+      </c>
+      <c r="AG11">
+        <v>0.49840000000000001</v>
+      </c>
+      <c r="AH11">
+        <v>0.50080000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1379,8 +1612,26 @@
       <c r="AB12">
         <v>0.86109999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="AD12">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="AE12">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="AF12">
+        <v>0.78139999999999998</v>
+      </c>
+      <c r="AG12">
+        <v>0.78139999999999998</v>
+      </c>
+      <c r="AH12">
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1456,8 +1707,26 @@
       <c r="AB13">
         <v>0.52139999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC13">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="AD13">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="AE13">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="AF13">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="AG13">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="AH13">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1533,8 +1802,26 @@
       <c r="AB14">
         <v>0.79479999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AD14">
+        <v>0.80089999999999995</v>
+      </c>
+      <c r="AE14">
+        <v>0.79879999999999995</v>
+      </c>
+      <c r="AF14">
+        <v>0.78280000000000005</v>
+      </c>
+      <c r="AG14">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="AH14">
+        <v>0.77659999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1610,8 +1897,26 @@
       <c r="AB15">
         <v>0.91469999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15">
+        <v>0.51729999999999998</v>
+      </c>
+      <c r="AD15">
+        <v>0.53959999999999997</v>
+      </c>
+      <c r="AE15">
+        <v>0.56679999999999997</v>
+      </c>
+      <c r="AF15">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="AG15">
+        <v>0.83709999999999996</v>
+      </c>
+      <c r="AH15">
+        <v>0.83720000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1687,8 +1992,26 @@
       <c r="AB16">
         <v>0.50719999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC16">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AD16">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AE16">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AF16">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="AG16">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="AH16">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1764,8 +2087,26 @@
       <c r="AB17">
         <v>0.33040000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC17">
+        <v>0.30790000000000001</v>
+      </c>
+      <c r="AD17">
+        <v>0.30790000000000001</v>
+      </c>
+      <c r="AE17">
+        <v>0.30790000000000001</v>
+      </c>
+      <c r="AF17">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="AG17">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="AH17">
+        <v>0.34560000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1841,8 +2182,26 @@
       <c r="AB18">
         <v>0.79320000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC18">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="AD18">
+        <v>0.80110000000000003</v>
+      </c>
+      <c r="AE18">
+        <v>0.80010000000000003</v>
+      </c>
+      <c r="AF18">
+        <v>0.79559999999999997</v>
+      </c>
+      <c r="AG18">
+        <v>0.79559999999999997</v>
+      </c>
+      <c r="AH18">
+        <v>0.79220000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1918,8 +2277,26 @@
       <c r="AB19">
         <v>0.93420000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC19">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="AD19">
+        <v>0.92979999999999996</v>
+      </c>
+      <c r="AE19">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="AF19">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="AG19">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="AH19">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1995,8 +2372,26 @@
       <c r="AB20">
         <v>0.95130000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC20">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="AD20">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="AE20">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="AF20">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="AG20">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="AH20">
+        <v>0.91459999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2072,8 +2467,26 @@
       <c r="AB21">
         <v>0.80130000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC21">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="AD21">
+        <v>0.74890000000000001</v>
+      </c>
+      <c r="AE21">
+        <v>0.75109999999999999</v>
+      </c>
+      <c r="AF21">
+        <v>0.8448</v>
+      </c>
+      <c r="AG21">
+        <v>0.8448</v>
+      </c>
+      <c r="AH21">
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2149,8 +2562,26 @@
       <c r="AB22">
         <v>0.65239999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC22">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="AD22">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="AE22">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="AF22">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="AG22">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="AH22">
+        <v>0.65239999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2226,8 +2657,26 @@
       <c r="AB23">
         <v>0.61529999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC23">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="AD23">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="AE23">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="AF23">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="AG23">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="AH23">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2303,8 +2752,26 @@
       <c r="AB24">
         <v>0.73650000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC24">
+        <v>0.51870000000000005</v>
+      </c>
+      <c r="AD24">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="AE24">
+        <v>0.51919999999999999</v>
+      </c>
+      <c r="AF24">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="AG24">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="AH24">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2380,8 +2847,26 @@
       <c r="AB25">
         <v>0.70679999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC25">
+        <v>0.38240000000000002</v>
+      </c>
+      <c r="AD25">
+        <v>0.38269999999999998</v>
+      </c>
+      <c r="AE25">
+        <v>0.38319999999999999</v>
+      </c>
+      <c r="AF25">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="AG25">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="AH25">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2457,205 +2942,223 @@
       <c r="AB26">
         <v>0.56230000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC26">
+        <v>0.61439999999999995</v>
+      </c>
+      <c r="AD26">
+        <v>0.61450000000000005</v>
+      </c>
+      <c r="AE26">
+        <v>0.61439999999999995</v>
+      </c>
+      <c r="AF26">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="AG26">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="AH26">
+        <v>0.57130000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1" t="s">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1" t="s">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1" t="s">
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1" t="s">
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1" t="s">
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1" t="s">
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1" t="s">
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="E32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="H32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="4" t="s">
+      <c r="K32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="4" t="s">
+      <c r="N32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="4" t="s">
+      <c r="Q32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="4" t="s">
+      <c r="T32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="4" t="s">
+      <c r="W32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB32" s="4" t="s">
+      <c r="Z32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4354,198 +4857,198 @@
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1" t="s">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1" t="s">
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1" t="s">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1" t="s">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1" t="s">
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1" t="s">
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1" t="s">
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1" t="s">
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1" t="s">
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1" t="s">
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="B65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="4" t="s">
+      <c r="E65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J65" s="4" t="s">
+      <c r="H65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M65" s="4" t="s">
+      <c r="K65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P65" s="4" t="s">
+      <c r="N65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S65" s="4" t="s">
+      <c r="Q65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="V65" s="4" t="s">
+      <c r="T65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y65" s="4" t="s">
+      <c r="W65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB65" s="4" t="s">
+      <c r="Z65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB65" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6243,8 +6746,3818 @@
         <v>0.5161</v>
       </c>
     </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B92" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B93" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B94" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB95" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="F96">
+        <v>0.82010000000000005</v>
+      </c>
+      <c r="G96">
+        <v>0.82440000000000002</v>
+      </c>
+      <c r="H96">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="I96">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="J96">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="K96">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="L96">
+        <v>0.81140000000000001</v>
+      </c>
+      <c r="M96">
+        <v>0.79659999999999997</v>
+      </c>
+      <c r="N96">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="O96">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="P96">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="Q96">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="R96">
+        <v>0.7087</v>
+      </c>
+      <c r="S96">
+        <v>0.6825</v>
+      </c>
+      <c r="T96">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="U96">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="V96">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="W96">
+        <v>0.7792</v>
+      </c>
+      <c r="X96">
+        <v>0.7792</v>
+      </c>
+      <c r="Y96">
+        <v>0.78669999999999995</v>
+      </c>
+      <c r="Z96">
+        <v>0.63580000000000003</v>
+      </c>
+      <c r="AA96">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="AB96">
+        <v>0.63470000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="F97">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="G97">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="L97">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="M97">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="N97">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="O97">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="P97">
+        <v>0.99</v>
+      </c>
+      <c r="Q97">
+        <v>0.9677</v>
+      </c>
+      <c r="R97">
+        <v>0.9677</v>
+      </c>
+      <c r="S97">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="T97">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="U97">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="V97">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="X97">
+        <v>1</v>
+      </c>
+      <c r="Y97">
+        <v>1</v>
+      </c>
+      <c r="Z97">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="AA97">
+        <v>0.9677</v>
+      </c>
+      <c r="AB97">
+        <v>0.96460000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98">
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="F98">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="G98">
+        <v>0.74439999999999995</v>
+      </c>
+      <c r="H98">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="I98">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="J98">
+        <v>0.65</v>
+      </c>
+      <c r="K98">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="L98">
+        <v>0.74229999999999996</v>
+      </c>
+      <c r="M98">
+        <v>0.7006</v>
+      </c>
+      <c r="N98">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="O98">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="P98">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="Q98">
+        <v>0.68079999999999996</v>
+      </c>
+      <c r="R98">
+        <v>0.70140000000000002</v>
+      </c>
+      <c r="S98">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="T98">
+        <v>0.7369</v>
+      </c>
+      <c r="U98">
+        <v>0.73319999999999996</v>
+      </c>
+      <c r="V98">
+        <v>0.74139999999999995</v>
+      </c>
+      <c r="W98">
+        <v>0.70489999999999997</v>
+      </c>
+      <c r="X98">
+        <v>0.70489999999999997</v>
+      </c>
+      <c r="Y98">
+        <v>0.70540000000000003</v>
+      </c>
+      <c r="Z98">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="AA98">
+        <v>0.75139999999999996</v>
+      </c>
+      <c r="AB98">
+        <v>0.74670000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="F99">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="G99">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="H99">
+        <v>0.48380000000000001</v>
+      </c>
+      <c r="I99">
+        <v>0.4854</v>
+      </c>
+      <c r="J99">
+        <v>0.48659999999999998</v>
+      </c>
+      <c r="K99">
+        <v>0.50119999999999998</v>
+      </c>
+      <c r="L99">
+        <v>0.50660000000000005</v>
+      </c>
+      <c r="M99">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="N99">
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="O99">
+        <v>0.49630000000000002</v>
+      </c>
+      <c r="P99">
+        <v>0.46810000000000002</v>
+      </c>
+      <c r="Q99">
+        <v>0.46829999999999999</v>
+      </c>
+      <c r="R99">
+        <v>0.48720000000000002</v>
+      </c>
+      <c r="S99">
+        <v>0.47970000000000002</v>
+      </c>
+      <c r="T99">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="U99">
+        <v>0.51380000000000003</v>
+      </c>
+      <c r="V99">
+        <v>0.51519999999999999</v>
+      </c>
+      <c r="W99">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="X99">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="Y99">
+        <v>0.52180000000000004</v>
+      </c>
+      <c r="Z99">
+        <v>0.51429999999999998</v>
+      </c>
+      <c r="AA99">
+        <v>0.53839999999999999</v>
+      </c>
+      <c r="AB99">
+        <v>0.51529999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <v>0.8911</v>
+      </c>
+      <c r="F100">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="G100">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="H100">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="I100">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="J100">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="K100">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="L100">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="M100">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="N100">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="O100">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="P100">
+        <v>0.83760000000000001</v>
+      </c>
+      <c r="Q100">
+        <v>0.82930000000000004</v>
+      </c>
+      <c r="R100">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="S100">
+        <v>0.8165</v>
+      </c>
+      <c r="T100">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="U100">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="V100">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="W100">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="X100">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="Y100">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="Z100">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="AA100">
+        <v>0.7913</v>
+      </c>
+      <c r="AB100">
+        <v>0.78910000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="F101">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="G101">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>0.9163</v>
+      </c>
+      <c r="L101">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="M101">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="N101">
+        <v>0.91969999999999996</v>
+      </c>
+      <c r="O101">
+        <v>0.91969999999999996</v>
+      </c>
+      <c r="P101">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="Q101">
+        <v>0.77790000000000004</v>
+      </c>
+      <c r="R101">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="S101">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="T101">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="U101">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="V101">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101">
+        <v>1</v>
+      </c>
+      <c r="Y101">
+        <v>1</v>
+      </c>
+      <c r="Z101">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="AA101">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="AB101">
+        <v>0.77210000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="F102">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="G102">
+        <v>0.48630000000000001</v>
+      </c>
+      <c r="H102">
+        <v>0.49519999999999997</v>
+      </c>
+      <c r="I102">
+        <v>0.49519999999999997</v>
+      </c>
+      <c r="J102">
+        <v>0.49630000000000002</v>
+      </c>
+      <c r="K102">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="L102">
+        <v>0.4798</v>
+      </c>
+      <c r="M102">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="N102">
+        <v>0.5081</v>
+      </c>
+      <c r="O102">
+        <v>0.4985</v>
+      </c>
+      <c r="P102">
+        <v>0.49730000000000002</v>
+      </c>
+      <c r="Q102">
+        <v>0.47810000000000002</v>
+      </c>
+      <c r="R102">
+        <v>0.4924</v>
+      </c>
+      <c r="S102">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="T102">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="U102">
+        <v>0.49259999999999998</v>
+      </c>
+      <c r="V102">
+        <v>0.48580000000000001</v>
+      </c>
+      <c r="W102">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="X102">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="Y102">
+        <v>0.5121</v>
+      </c>
+      <c r="Z102">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="AA102">
+        <v>0.501</v>
+      </c>
+      <c r="AB102">
+        <v>0.5071</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="F103">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="G103">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="H103">
+        <v>0.78139999999999998</v>
+      </c>
+      <c r="I103">
+        <v>0.78139999999999998</v>
+      </c>
+      <c r="J103">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="K103">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="L103">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="M103">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="N103">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="O103">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="P103">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="Q103">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="R103">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="S103">
+        <v>0.8589</v>
+      </c>
+      <c r="T103">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="U103">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="V103">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="W103">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="X103">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="Y103">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="Z103">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="AA103">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="AB103">
+        <v>0.86109999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104">
+        <v>0.51670000000000005</v>
+      </c>
+      <c r="F104">
+        <v>0.51839999999999997</v>
+      </c>
+      <c r="G104">
+        <v>0.51670000000000005</v>
+      </c>
+      <c r="H104">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="I104">
+        <v>0.5181</v>
+      </c>
+      <c r="J104">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="K104">
+        <v>0.47010000000000002</v>
+      </c>
+      <c r="L104">
+        <v>0.47010000000000002</v>
+      </c>
+      <c r="M104">
+        <v>0.47589999999999999</v>
+      </c>
+      <c r="N104">
+        <v>0.52010000000000001</v>
+      </c>
+      <c r="O104">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="P104">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="Q104">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="R104">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="S104">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="T104">
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="U104">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="V104">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="W104">
+        <v>0.51759999999999995</v>
+      </c>
+      <c r="X104">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="Y104">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="Z104">
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="AA104">
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="AB104">
+        <v>0.51790000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105">
+        <v>0.78839999999999999</v>
+      </c>
+      <c r="F105">
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="G105">
+        <v>0.78149999999999997</v>
+      </c>
+      <c r="H105">
+        <v>0.77829999999999999</v>
+      </c>
+      <c r="I105">
+        <v>0.7782</v>
+      </c>
+      <c r="J105">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="K105">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="L105">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="M105">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="N105">
+        <v>0.81340000000000001</v>
+      </c>
+      <c r="O105">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="P105">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="Q105">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="R105">
+        <v>0.82289999999999996</v>
+      </c>
+      <c r="S105">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="T105">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="U105">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="V105">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="W105">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="X105">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="Y105">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="Z105">
+        <v>0.80689999999999995</v>
+      </c>
+      <c r="AA105">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="AB105">
+        <v>0.79869999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106">
+        <v>0.62280000000000002</v>
+      </c>
+      <c r="F106">
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="G106">
+        <v>0.66320000000000001</v>
+      </c>
+      <c r="H106">
+        <v>0.8387</v>
+      </c>
+      <c r="I106">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="J106">
+        <v>0.83830000000000005</v>
+      </c>
+      <c r="K106">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="L106">
+        <v>0.76880000000000004</v>
+      </c>
+      <c r="M106">
+        <v>0.6613</v>
+      </c>
+      <c r="N106">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="O106">
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="P106">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="Q106">
+        <v>0.66949999999999998</v>
+      </c>
+      <c r="R106">
+        <v>0.77849999999999997</v>
+      </c>
+      <c r="S106">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="T106">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="U106">
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="V106">
+        <v>0.7913</v>
+      </c>
+      <c r="W106">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="X106">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="Y106">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="Z106">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="AA106">
+        <v>0.91390000000000005</v>
+      </c>
+      <c r="AB106">
+        <v>0.9153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="F107">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G107">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="H107">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="I107">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="J107">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="K107">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="L107">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="M107">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="N107">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="O107">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="P107">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="Q107">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="R107">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="S107">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="T107">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="U107">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="V107">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="W107">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="X107">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="Y107">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="Z107">
+        <v>0.5</v>
+      </c>
+      <c r="AA107">
+        <v>0.5</v>
+      </c>
+      <c r="AB107">
+        <v>0.50719999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="F108">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="G108">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="H108">
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="I108">
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="J108">
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="K108">
+        <v>0.33379999999999999</v>
+      </c>
+      <c r="L108">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="M108">
+        <v>0.3352</v>
+      </c>
+      <c r="N108">
+        <v>0.33860000000000001</v>
+      </c>
+      <c r="O108">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="P108">
+        <v>0.33879999999999999</v>
+      </c>
+      <c r="Q108">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="R108">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="S108">
+        <v>0.3322</v>
+      </c>
+      <c r="T108">
+        <v>0.33529999999999999</v>
+      </c>
+      <c r="U108">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="V108">
+        <v>0.33529999999999999</v>
+      </c>
+      <c r="W108">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="X108">
+        <v>0.35039999999999999</v>
+      </c>
+      <c r="Y108">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="Z108">
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="AA108">
+        <v>0.33529999999999999</v>
+      </c>
+      <c r="AB108">
+        <v>0.3286</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109">
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="F109">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="G109">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="H109">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="I109">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="J109">
+        <v>0.7893</v>
+      </c>
+      <c r="K109">
+        <v>0.77290000000000003</v>
+      </c>
+      <c r="L109">
+        <v>0.78110000000000002</v>
+      </c>
+      <c r="M109">
+        <v>0.77629999999999999</v>
+      </c>
+      <c r="N109">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="O109">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="P109">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="Q109">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="R109">
+        <v>0.82020000000000004</v>
+      </c>
+      <c r="S109">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="T109">
+        <v>0.78469999999999995</v>
+      </c>
+      <c r="U109">
+        <v>0.78439999999999999</v>
+      </c>
+      <c r="V109">
+        <v>0.78469999999999995</v>
+      </c>
+      <c r="W109">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="X109">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="Y109">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="Z109">
+        <v>0.7772</v>
+      </c>
+      <c r="AA109">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="AB109">
+        <v>0.77449999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="F110">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="G110">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="H110">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="I110">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="J110">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="K110">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="L110">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="M110">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="N110">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="O110">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="P110">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="Q110">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="R110">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="S110">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="T110">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="U110">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="V110">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="W110">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="X110">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="Y110">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="Z110">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="AA110">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="AB110">
+        <v>0.93420000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111">
+        <v>0.9204</v>
+      </c>
+      <c r="F111">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="G111">
+        <v>0.9204</v>
+      </c>
+      <c r="H111">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="I111">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="J111">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="K111">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L111">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="M111">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="N111">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="O111">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="P111">
+        <v>0.92</v>
+      </c>
+      <c r="Q111">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="R111">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="S111">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="T111">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="U111">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="V111">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="W111">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="X111">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="Y111">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="Z111">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="AA111">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="AB111">
+        <v>0.95130000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="F112">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="G112">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="H112">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="I112">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="J112">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="K112">
+        <v>0.73060000000000003</v>
+      </c>
+      <c r="L112">
+        <v>0.72709999999999997</v>
+      </c>
+      <c r="M112">
+        <v>0.72789999999999999</v>
+      </c>
+      <c r="N112">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="O112">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="P112">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="Q112">
+        <v>0.80910000000000004</v>
+      </c>
+      <c r="R112">
+        <v>0.8196</v>
+      </c>
+      <c r="S112">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="T112">
+        <v>0.7228</v>
+      </c>
+      <c r="U112">
+        <v>0.7218</v>
+      </c>
+      <c r="V112">
+        <v>0.72260000000000002</v>
+      </c>
+      <c r="W112">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="X112">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="Y112">
+        <v>0.8579</v>
+      </c>
+      <c r="Z112">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="AA112">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="AB112">
+        <v>0.80779999999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="F113">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="G113">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="H113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="I113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="J113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="K113">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="L113">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="M113">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="N113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="O113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="P113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="Q113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="R113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="S113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="T113">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="U113">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="V113">
+        <v>0.34760000000000002</v>
+      </c>
+      <c r="W113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="X113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="Y113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="Z113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="AA113">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="AB113">
+        <v>0.65239999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114">
+        <v>0.5292</v>
+      </c>
+      <c r="F114">
+        <v>0.52929999999999999</v>
+      </c>
+      <c r="G114">
+        <v>0.52910000000000001</v>
+      </c>
+      <c r="H114">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="I114">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J114">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="K114">
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="L114">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="M114">
+        <v>0.52790000000000004</v>
+      </c>
+      <c r="N114">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="O114">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="P114">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="Q114">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="R114">
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="S114">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="T114">
+        <v>0.5333</v>
+      </c>
+      <c r="U114">
+        <v>0.53049999999999997</v>
+      </c>
+      <c r="V114">
+        <v>0.53239999999999998</v>
+      </c>
+      <c r="W114">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="X114">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="Y114">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="Z114">
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="AA114">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="AB114">
+        <v>0.60829999999999995</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115">
+        <v>0.51870000000000005</v>
+      </c>
+      <c r="F115">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="G115">
+        <v>0.51919999999999999</v>
+      </c>
+      <c r="H115">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="I115">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J115">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="K115">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="L115">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="M115">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="N115">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="O115">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="P115">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="Q115">
+        <v>0.73829999999999996</v>
+      </c>
+      <c r="R115">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="S115">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="T115">
+        <v>0.37919999999999998</v>
+      </c>
+      <c r="U115">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="V115">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="W115">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="X115">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="Y115">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="Z115">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="AA115">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="AB115">
+        <v>0.73650000000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116">
+        <v>0.71589999999999998</v>
+      </c>
+      <c r="F116">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G116">
+        <v>0.71630000000000005</v>
+      </c>
+      <c r="H116">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="I116">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="J116">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K116">
+        <v>0.71650000000000003</v>
+      </c>
+      <c r="L116">
+        <v>0.71609999999999996</v>
+      </c>
+      <c r="M116">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="N116">
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="O116">
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="P116">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="Q116">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="R116">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="S116">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="T116">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="U116">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="V116">
+        <v>0.70809999999999995</v>
+      </c>
+      <c r="W116">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="X116">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="Y116">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="Z116">
+        <v>0.69</v>
+      </c>
+      <c r="AA116">
+        <v>0.69040000000000001</v>
+      </c>
+      <c r="AB116">
+        <v>0.68630000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117">
+        <v>0.59809999999999997</v>
+      </c>
+      <c r="F117">
+        <v>0.59519999999999995</v>
+      </c>
+      <c r="G117">
+        <v>0.59809999999999997</v>
+      </c>
+      <c r="H117">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="I117">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="J117">
+        <v>0.57640000000000002</v>
+      </c>
+      <c r="K117">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="L117">
+        <v>0.61050000000000004</v>
+      </c>
+      <c r="M117">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="N117">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="O117">
+        <v>0.54930000000000001</v>
+      </c>
+      <c r="P117">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="Q117">
+        <v>0.53520000000000001</v>
+      </c>
+      <c r="R117">
+        <v>0.53380000000000005</v>
+      </c>
+      <c r="S117">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="T117">
+        <v>0.56910000000000005</v>
+      </c>
+      <c r="U117">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="V117">
+        <v>0.56640000000000001</v>
+      </c>
+      <c r="W117">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="X117">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="Y117">
+        <v>0.57940000000000003</v>
+      </c>
+      <c r="Z117">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="AA117">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="AB117">
+        <v>0.5161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F121" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F122" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B126" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
+      <c r="W126" s="5"/>
+      <c r="X126" s="5"/>
+      <c r="Y126" s="5"/>
+      <c r="Z126" s="5"/>
+      <c r="AA126" s="5"/>
+      <c r="AB126" s="5"/>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B127" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U127" s="5"/>
+      <c r="V127" s="5"/>
+      <c r="W127" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X127" s="5"/>
+      <c r="Y127" s="5"/>
+      <c r="Z127" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA127" s="5"/>
+      <c r="AB127" s="5"/>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB128" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>7</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+      <c r="F129">
+        <v>6</v>
+      </c>
+      <c r="G129">
+        <v>5</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>7</v>
+      </c>
+      <c r="L129">
+        <v>9</v>
+      </c>
+      <c r="M129">
+        <v>8</v>
+      </c>
+      <c r="N129">
+        <v>4.5</v>
+      </c>
+      <c r="O129">
+        <v>4.5</v>
+      </c>
+      <c r="P129">
+        <v>6</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>45</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>1</v>
+      </c>
+      <c r="T129">
+        <v>5</v>
+      </c>
+      <c r="U129">
+        <v>4</v>
+      </c>
+      <c r="V129">
+        <v>6</v>
+      </c>
+      <c r="W129">
+        <v>1.5</v>
+      </c>
+      <c r="X129">
+        <v>1.5</v>
+      </c>
+      <c r="Y129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130">
+        <v>7.5</v>
+      </c>
+      <c r="F130">
+        <v>7.5</v>
+      </c>
+      <c r="G130">
+        <v>9</v>
+      </c>
+      <c r="H130">
+        <v>4.5</v>
+      </c>
+      <c r="I130">
+        <v>4.5</v>
+      </c>
+      <c r="J130">
+        <v>6</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>8</v>
+      </c>
+      <c r="O130">
+        <v>8</v>
+      </c>
+      <c r="P130">
+        <v>8</v>
+      </c>
+      <c r="Q130">
+        <v>4.75</v>
+      </c>
+      <c r="R130">
+        <v>5.5</v>
+      </c>
+      <c r="S130">
+        <v>4.75</v>
+      </c>
+      <c r="T130">
+        <v>2.75</v>
+      </c>
+      <c r="U130">
+        <v>1</v>
+      </c>
+      <c r="V130">
+        <v>2.25</v>
+      </c>
+      <c r="W130">
+        <v>5</v>
+      </c>
+      <c r="X130">
+        <v>5</v>
+      </c>
+      <c r="Y130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>9</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131">
+        <v>5</v>
+      </c>
+      <c r="I131">
+        <v>8</v>
+      </c>
+      <c r="J131">
+        <v>4</v>
+      </c>
+      <c r="K131">
+        <v>8</v>
+      </c>
+      <c r="L131">
+        <v>7</v>
+      </c>
+      <c r="M131">
+        <v>9</v>
+      </c>
+      <c r="N131">
+        <v>2.5</v>
+      </c>
+      <c r="O131">
+        <v>2.5</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <v>6</v>
+      </c>
+      <c r="R131">
+        <v>5</v>
+      </c>
+      <c r="S131">
+        <v>4</v>
+      </c>
+      <c r="T131">
+        <v>4</v>
+      </c>
+      <c r="U131">
+        <v>5</v>
+      </c>
+      <c r="V131">
+        <v>6</v>
+      </c>
+      <c r="W131">
+        <v>1.5</v>
+      </c>
+      <c r="X131">
+        <v>1.5</v>
+      </c>
+      <c r="Y131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132">
+        <v>3.75</v>
+      </c>
+      <c r="C132">
+        <v>7</v>
+      </c>
+      <c r="D132">
+        <v>4.5</v>
+      </c>
+      <c r="E132">
+        <v>6.75</v>
+      </c>
+      <c r="F132">
+        <v>7.75</v>
+      </c>
+      <c r="G132">
+        <v>4</v>
+      </c>
+      <c r="H132">
+        <v>1.75</v>
+      </c>
+      <c r="I132">
+        <v>5.5</v>
+      </c>
+      <c r="J132">
+        <v>4</v>
+      </c>
+      <c r="K132">
+        <v>3.5</v>
+      </c>
+      <c r="L132">
+        <v>3.5</v>
+      </c>
+      <c r="M132">
+        <v>3.5</v>
+      </c>
+      <c r="N132">
+        <v>7.5</v>
+      </c>
+      <c r="O132">
+        <v>7.5</v>
+      </c>
+      <c r="P132">
+        <v>7.5</v>
+      </c>
+      <c r="Q132">
+        <v>3.5</v>
+      </c>
+      <c r="R132">
+        <v>5.5</v>
+      </c>
+      <c r="S132">
+        <v>3</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
+        <v>2</v>
+      </c>
+      <c r="V132">
+        <v>2</v>
+      </c>
+      <c r="W132">
+        <v>4.75</v>
+      </c>
+      <c r="X132">
+        <v>5.25</v>
+      </c>
+      <c r="Y132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133">
+        <v>3.5</v>
+      </c>
+      <c r="C133">
+        <v>7</v>
+      </c>
+      <c r="D133">
+        <v>4.5</v>
+      </c>
+      <c r="E133">
+        <v>6.75</v>
+      </c>
+      <c r="F133">
+        <v>7.75</v>
+      </c>
+      <c r="G133">
+        <v>4</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>5.5</v>
+      </c>
+      <c r="J133">
+        <v>4</v>
+      </c>
+      <c r="K133">
+        <v>3.5</v>
+      </c>
+      <c r="L133">
+        <v>3.5</v>
+      </c>
+      <c r="M133">
+        <v>3.5</v>
+      </c>
+      <c r="N133">
+        <v>7.25</v>
+      </c>
+      <c r="O133">
+        <v>7.75</v>
+      </c>
+      <c r="P133">
+        <v>7.5</v>
+      </c>
+      <c r="Q133">
+        <v>3.5</v>
+      </c>
+      <c r="R133">
+        <v>5.5</v>
+      </c>
+      <c r="S133">
+        <v>3</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
+        <v>2</v>
+      </c>
+      <c r="V133">
+        <v>2</v>
+      </c>
+      <c r="W133">
+        <v>4.75</v>
+      </c>
+      <c r="X133">
+        <v>5.25</v>
+      </c>
+      <c r="Y133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>9</v>
+      </c>
+      <c r="D134">
+        <v>7</v>
+      </c>
+      <c r="E134">
+        <v>5.5</v>
+      </c>
+      <c r="F134">
+        <v>5.5</v>
+      </c>
+      <c r="G134">
+        <v>8</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>4</v>
+      </c>
+      <c r="L134">
+        <v>6</v>
+      </c>
+      <c r="M134">
+        <v>5</v>
+      </c>
+      <c r="N134">
+        <v>8</v>
+      </c>
+      <c r="O134">
+        <v>8</v>
+      </c>
+      <c r="P134">
+        <v>8</v>
+      </c>
+      <c r="Q134">
+        <v>2.25</v>
+      </c>
+      <c r="R134">
+        <v>2.75</v>
+      </c>
+      <c r="S134">
+        <v>1</v>
+      </c>
+      <c r="T134">
+        <v>2</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
+        <v>2</v>
+      </c>
+      <c r="W134">
+        <v>5</v>
+      </c>
+      <c r="X134">
+        <v>5</v>
+      </c>
+      <c r="Y134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>8</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+      <c r="F135">
+        <v>5</v>
+      </c>
+      <c r="G135">
+        <v>4</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <v>9</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>8.5</v>
+      </c>
+      <c r="O135">
+        <v>8.5</v>
+      </c>
+      <c r="P135">
+        <v>7</v>
+      </c>
+      <c r="Q135">
+        <v>6</v>
+      </c>
+      <c r="R135">
+        <v>4</v>
+      </c>
+      <c r="S135">
+        <v>5</v>
+      </c>
+      <c r="T135">
+        <v>3</v>
+      </c>
+      <c r="U135">
+        <v>1</v>
+      </c>
+      <c r="V135">
+        <v>2</v>
+      </c>
+      <c r="W135">
+        <v>4.5</v>
+      </c>
+      <c r="X135">
+        <v>4.5</v>
+      </c>
+      <c r="Y135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136">
+        <v>7</v>
+      </c>
+      <c r="C136">
+        <v>7</v>
+      </c>
+      <c r="D136">
+        <v>7</v>
+      </c>
+      <c r="E136">
+        <v>3.25</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>3.75</v>
+      </c>
+      <c r="H136">
+        <v>7</v>
+      </c>
+      <c r="I136">
+        <v>7</v>
+      </c>
+      <c r="J136">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>7</v>
+      </c>
+      <c r="L136">
+        <v>7</v>
+      </c>
+      <c r="M136">
+        <v>7</v>
+      </c>
+      <c r="N136">
+        <v>2.5</v>
+      </c>
+      <c r="O136">
+        <v>2.5</v>
+      </c>
+      <c r="P136">
+        <v>1</v>
+      </c>
+      <c r="Q136">
+        <v>7</v>
+      </c>
+      <c r="R136">
+        <v>7</v>
+      </c>
+      <c r="S136">
+        <v>4</v>
+      </c>
+      <c r="T136">
+        <v>5</v>
+      </c>
+      <c r="U136">
+        <v>5</v>
+      </c>
+      <c r="V136">
+        <v>5</v>
+      </c>
+      <c r="W136">
+        <v>2.5</v>
+      </c>
+      <c r="X136">
+        <v>2.5</v>
+      </c>
+      <c r="Y136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137">
+        <v>1.5</v>
+      </c>
+      <c r="C137">
+        <v>1.5</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <v>7</v>
+      </c>
+      <c r="F137">
+        <v>8</v>
+      </c>
+      <c r="G137">
+        <v>9</v>
+      </c>
+      <c r="H137">
+        <v>4</v>
+      </c>
+      <c r="I137">
+        <v>5</v>
+      </c>
+      <c r="J137">
+        <v>6</v>
+      </c>
+      <c r="K137">
+        <v>4</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>5</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137">
+        <v>6</v>
+      </c>
+      <c r="P137">
+        <v>2</v>
+      </c>
+      <c r="Q137">
+        <v>7</v>
+      </c>
+      <c r="R137">
+        <v>8</v>
+      </c>
+      <c r="S137">
+        <v>9</v>
+      </c>
+      <c r="T137">
+        <v>2.5</v>
+      </c>
+      <c r="U137">
+        <v>5</v>
+      </c>
+      <c r="V137">
+        <v>2.5</v>
+      </c>
+      <c r="W137">
+        <v>6</v>
+      </c>
+      <c r="X137">
+        <v>1</v>
+      </c>
+      <c r="Y137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <v>9</v>
+      </c>
+      <c r="G138">
+        <v>7</v>
+      </c>
+      <c r="H138">
+        <v>4</v>
+      </c>
+      <c r="I138">
+        <v>8</v>
+      </c>
+      <c r="J138">
+        <v>6</v>
+      </c>
+      <c r="K138">
+        <v>5</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>8.75</v>
+      </c>
+      <c r="O138">
+        <v>8.25</v>
+      </c>
+      <c r="P138">
+        <v>7</v>
+      </c>
+      <c r="Q138">
+        <v>4</v>
+      </c>
+      <c r="R138">
+        <v>6</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
+        <v>5</v>
+      </c>
+      <c r="U138">
+        <v>6</v>
+      </c>
+      <c r="V138">
+        <v>4</v>
+      </c>
+      <c r="W138">
+        <v>3</v>
+      </c>
+      <c r="X138">
+        <v>2</v>
+      </c>
+      <c r="Y138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>5</v>
+      </c>
+      <c r="I139">
+        <v>9</v>
+      </c>
+      <c r="J139">
+        <v>7</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>4.5</v>
+      </c>
+      <c r="O139">
+        <v>4.5</v>
+      </c>
+      <c r="P139">
+        <v>6</v>
+      </c>
+      <c r="Q139">
+        <v>7</v>
+      </c>
+      <c r="R139">
+        <v>8</v>
+      </c>
+      <c r="S139">
+        <v>9</v>
+      </c>
+      <c r="T139">
+        <v>1</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="V139">
+        <v>3</v>
+      </c>
+      <c r="W139">
+        <v>6</v>
+      </c>
+      <c r="X139">
+        <v>4</v>
+      </c>
+      <c r="Y139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>6.5</v>
+      </c>
+      <c r="F140">
+        <v>6.5</v>
+      </c>
+      <c r="G140">
+        <v>6.5</v>
+      </c>
+      <c r="H140">
+        <v>6.5</v>
+      </c>
+      <c r="I140">
+        <v>6.5</v>
+      </c>
+      <c r="J140">
+        <v>6.5</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>8</v>
+      </c>
+      <c r="O140">
+        <v>8</v>
+      </c>
+      <c r="P140">
+        <v>8</v>
+      </c>
+      <c r="Q140">
+        <v>4.5</v>
+      </c>
+      <c r="R140">
+        <v>4.5</v>
+      </c>
+      <c r="S140">
+        <v>6</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
+        <v>2</v>
+      </c>
+      <c r="W140">
+        <v>5</v>
+      </c>
+      <c r="X140">
+        <v>5</v>
+      </c>
+      <c r="Y140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>6</v>
+      </c>
+      <c r="E141">
+        <v>7.75</v>
+      </c>
+      <c r="F141">
+        <v>9</v>
+      </c>
+      <c r="G141">
+        <v>7.25</v>
+      </c>
+      <c r="H141">
+        <v>3</v>
+      </c>
+      <c r="I141">
+        <v>1.25</v>
+      </c>
+      <c r="J141">
+        <v>1.75</v>
+      </c>
+      <c r="K141">
+        <v>3.5</v>
+      </c>
+      <c r="L141">
+        <v>6</v>
+      </c>
+      <c r="M141">
+        <v>3.5</v>
+      </c>
+      <c r="N141">
+        <v>8</v>
+      </c>
+      <c r="O141">
+        <v>7</v>
+      </c>
+      <c r="P141">
+        <v>9</v>
+      </c>
+      <c r="Q141">
+        <v>2</v>
+      </c>
+      <c r="R141">
+        <v>5</v>
+      </c>
+      <c r="S141">
+        <v>1</v>
+      </c>
+      <c r="T141">
+        <v>2</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
+        <v>2</v>
+      </c>
+      <c r="W141">
+        <v>5</v>
+      </c>
+      <c r="X141">
+        <v>5</v>
+      </c>
+      <c r="Y141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>5.5</v>
+      </c>
+      <c r="F142">
+        <v>6.5</v>
+      </c>
+      <c r="G142">
+        <v>6.25</v>
+      </c>
+      <c r="H142">
+        <v>4</v>
+      </c>
+      <c r="I142">
+        <v>9</v>
+      </c>
+      <c r="J142">
+        <v>7.75</v>
+      </c>
+      <c r="K142">
+        <v>3</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>8.75</v>
+      </c>
+      <c r="O142">
+        <v>8.25</v>
+      </c>
+      <c r="P142">
+        <v>7</v>
+      </c>
+      <c r="Q142">
+        <v>4</v>
+      </c>
+      <c r="R142">
+        <v>6</v>
+      </c>
+      <c r="S142">
+        <v>5</v>
+      </c>
+      <c r="T142">
+        <v>6</v>
+      </c>
+      <c r="U142">
+        <v>5</v>
+      </c>
+      <c r="V142">
+        <v>4</v>
+      </c>
+      <c r="W142">
+        <v>2.25</v>
+      </c>
+      <c r="X142">
+        <v>2.75</v>
+      </c>
+      <c r="Y142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>6</v>
+      </c>
+      <c r="F143">
+        <v>5</v>
+      </c>
+      <c r="G143">
+        <v>4</v>
+      </c>
+      <c r="H143">
+        <v>8</v>
+      </c>
+      <c r="I143">
+        <v>9</v>
+      </c>
+      <c r="J143">
+        <v>7</v>
+      </c>
+      <c r="K143">
+        <v>3</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>5.5</v>
+      </c>
+      <c r="O143">
+        <v>5.5</v>
+      </c>
+      <c r="P143">
+        <v>4</v>
+      </c>
+      <c r="Q143">
+        <v>8</v>
+      </c>
+      <c r="R143">
+        <v>8</v>
+      </c>
+      <c r="S143">
+        <v>8</v>
+      </c>
+      <c r="T143">
+        <v>5.5</v>
+      </c>
+      <c r="U143">
+        <v>4</v>
+      </c>
+      <c r="V143">
+        <v>5.5</v>
+      </c>
+      <c r="W143">
+        <v>2.5</v>
+      </c>
+      <c r="X143">
+        <v>2.5</v>
+      </c>
+      <c r="Y143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <v>6</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
+      </c>
+      <c r="G144">
+        <v>5</v>
+      </c>
+      <c r="H144">
+        <v>8.5</v>
+      </c>
+      <c r="I144">
+        <v>8.5</v>
+      </c>
+      <c r="J144">
+        <v>7</v>
+      </c>
+      <c r="K144">
+        <v>3</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>5.5</v>
+      </c>
+      <c r="O144">
+        <v>5.5</v>
+      </c>
+      <c r="P144">
+        <v>4</v>
+      </c>
+      <c r="Q144">
+        <v>8</v>
+      </c>
+      <c r="R144">
+        <v>8</v>
+      </c>
+      <c r="S144">
+        <v>8</v>
+      </c>
+      <c r="T144">
+        <v>5.5</v>
+      </c>
+      <c r="U144">
+        <v>4</v>
+      </c>
+      <c r="V144">
+        <v>5.5</v>
+      </c>
+      <c r="W144">
+        <v>2.5</v>
+      </c>
+      <c r="X144">
+        <v>2.5</v>
+      </c>
+      <c r="Y144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <v>7.5</v>
+      </c>
+      <c r="F145">
+        <v>7.5</v>
+      </c>
+      <c r="G145">
+        <v>9</v>
+      </c>
+      <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145">
+        <v>6</v>
+      </c>
+      <c r="J145">
+        <v>5</v>
+      </c>
+      <c r="K145">
+        <v>2.75</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>2.25</v>
+      </c>
+      <c r="N145">
+        <v>8.5</v>
+      </c>
+      <c r="O145">
+        <v>8.5</v>
+      </c>
+      <c r="P145">
+        <v>7</v>
+      </c>
+      <c r="Q145">
+        <v>4</v>
+      </c>
+      <c r="R145">
+        <v>6</v>
+      </c>
+      <c r="S145">
+        <v>5</v>
+      </c>
+      <c r="T145">
+        <v>2</v>
+      </c>
+      <c r="U145">
+        <v>1</v>
+      </c>
+      <c r="V145">
+        <v>3</v>
+      </c>
+      <c r="W145">
+        <v>5.5</v>
+      </c>
+      <c r="X145">
+        <v>5.5</v>
+      </c>
+      <c r="Y145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>6.5</v>
+      </c>
+      <c r="F146">
+        <v>6.5</v>
+      </c>
+      <c r="G146">
+        <v>6.5</v>
+      </c>
+      <c r="H146">
+        <v>6.5</v>
+      </c>
+      <c r="I146">
+        <v>6.5</v>
+      </c>
+      <c r="J146">
+        <v>6.5</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>6.5</v>
+      </c>
+      <c r="O146">
+        <v>6.5</v>
+      </c>
+      <c r="P146">
+        <v>6.5</v>
+      </c>
+      <c r="Q146">
+        <v>6.5</v>
+      </c>
+      <c r="R146">
+        <v>6.5</v>
+      </c>
+      <c r="S146">
+        <v>6.5</v>
+      </c>
+      <c r="T146">
+        <v>2</v>
+      </c>
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
+        <v>2</v>
+      </c>
+      <c r="W146">
+        <v>5</v>
+      </c>
+      <c r="X146">
+        <v>5</v>
+      </c>
+      <c r="Y146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>7.5</v>
+      </c>
+      <c r="F147">
+        <v>7.5</v>
+      </c>
+      <c r="G147">
+        <v>9</v>
+      </c>
+      <c r="H147">
+        <v>6</v>
+      </c>
+      <c r="I147">
+        <v>5</v>
+      </c>
+      <c r="J147">
+        <v>4</v>
+      </c>
+      <c r="K147">
+        <v>3</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>8</v>
+      </c>
+      <c r="O147">
+        <v>8</v>
+      </c>
+      <c r="P147">
+        <v>8</v>
+      </c>
+      <c r="Q147">
+        <v>6</v>
+      </c>
+      <c r="R147">
+        <v>5</v>
+      </c>
+      <c r="S147">
+        <v>4</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147">
+        <v>2</v>
+      </c>
+      <c r="W147">
+        <v>5</v>
+      </c>
+      <c r="X147">
+        <v>5</v>
+      </c>
+      <c r="Y147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>25</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148">
+        <v>7.75</v>
+      </c>
+      <c r="F148">
+        <v>7.25</v>
+      </c>
+      <c r="G148">
+        <v>9</v>
+      </c>
+      <c r="H148">
+        <v>5</v>
+      </c>
+      <c r="I148">
+        <v>6</v>
+      </c>
+      <c r="J148">
+        <v>4</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>8.5</v>
+      </c>
+      <c r="O148">
+        <v>8.5</v>
+      </c>
+      <c r="P148">
+        <v>7</v>
+      </c>
+      <c r="Q148">
+        <v>4</v>
+      </c>
+      <c r="R148">
+        <v>6</v>
+      </c>
+      <c r="S148">
+        <v>5</v>
+      </c>
+      <c r="T148">
+        <v>1</v>
+      </c>
+      <c r="U148">
+        <v>2</v>
+      </c>
+      <c r="V148">
+        <v>3</v>
+      </c>
+      <c r="W148">
+        <v>5</v>
+      </c>
+      <c r="X148">
+        <v>5</v>
+      </c>
+      <c r="Y148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>7.5</v>
+      </c>
+      <c r="F149">
+        <v>7.5</v>
+      </c>
+      <c r="G149">
+        <v>9</v>
+      </c>
+      <c r="H149">
+        <v>4</v>
+      </c>
+      <c r="I149">
+        <v>6</v>
+      </c>
+      <c r="J149">
+        <v>5</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>8</v>
+      </c>
+      <c r="O149">
+        <v>8</v>
+      </c>
+      <c r="P149">
+        <v>8</v>
+      </c>
+      <c r="Q149">
+        <v>4</v>
+      </c>
+      <c r="R149">
+        <v>6</v>
+      </c>
+      <c r="S149">
+        <v>5</v>
+      </c>
+      <c r="T149">
+        <v>1</v>
+      </c>
+      <c r="U149">
+        <v>2</v>
+      </c>
+      <c r="V149">
+        <v>3</v>
+      </c>
+      <c r="W149">
+        <v>5</v>
+      </c>
+      <c r="X149">
+        <v>5</v>
+      </c>
+      <c r="Y149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>9</v>
+      </c>
+      <c r="D150">
+        <v>7</v>
+      </c>
+      <c r="E150">
+        <v>4.75</v>
+      </c>
+      <c r="F150">
+        <v>4.75</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>5.5</v>
+      </c>
+      <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>6</v>
+      </c>
+      <c r="L150">
+        <v>9</v>
+      </c>
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150">
+        <v>7.5</v>
+      </c>
+      <c r="O150" s="9">
+        <v>44382</v>
+      </c>
+      <c r="P150">
+        <v>4</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1</v>
+      </c>
+      <c r="T150">
+        <v>4.5</v>
+      </c>
+      <c r="U150">
+        <v>6</v>
+      </c>
+      <c r="V150">
+        <v>4.5</v>
+      </c>
+      <c r="W150">
+        <v>2.5</v>
+      </c>
+      <c r="X150">
+        <v>2.5</v>
+      </c>
+      <c r="Y150">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="67">
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="T127:V127"/>
+    <mergeCell ref="W127:Y127"/>
+    <mergeCell ref="Z127:AB127"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="K127:M127"/>
+    <mergeCell ref="N127:P127"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="B126:J126"/>
+    <mergeCell ref="K126:S126"/>
+    <mergeCell ref="T126:AB126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B92:AB92"/>
+    <mergeCell ref="B93:J93"/>
+    <mergeCell ref="K93:S93"/>
+    <mergeCell ref="T93:AB93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="T94:V94"/>
+    <mergeCell ref="W94:Y94"/>
+    <mergeCell ref="Z94:AB94"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="B1:AB1"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="T30:AB30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
     <mergeCell ref="B29:AB29"/>
     <mergeCell ref="B62:AB62"/>
     <mergeCell ref="K64:M64"/>
@@ -6261,29 +10574,6 @@
     <mergeCell ref="T63:AB63"/>
     <mergeCell ref="B30:J30"/>
     <mergeCell ref="K30:S30"/>
-    <mergeCell ref="T30:AB30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="B1:AB1"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
